--- a/in-class.xlsx
+++ b/in-class.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1898506\OneDrive - John Abbott College\Rita\DB\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1898506\OneDrive - John Abbott College\Rita\DB\Assignment\inclass week1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="62">
   <si>
     <t>Department Name</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -569,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,16 +745,16 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -759,12 +762,14 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -774,14 +779,12 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
@@ -791,13 +794,13 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -808,13 +811,13 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -825,7 +828,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
@@ -842,7 +845,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -859,7 +862,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -876,13 +879,13 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -893,43 +896,45 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -944,14 +949,12 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
@@ -961,12 +964,14 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,21 +981,36 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>10</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>54</v>
       </c>
     </row>

--- a/in-class.xlsx
+++ b/in-class.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1898506\OneDrive - John Abbott College\Rita\DB\Assignment\inclass week1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209A0870-75C4-4FCA-A59B-B790516F59CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="5" r:id="rId1"/>
     <sheet name="Department" sheetId="11" r:id="rId2"/>
     <sheet name="Job" sheetId="8" r:id="rId3"/>
-    <sheet name="Absenteeism" sheetId="6" r:id="rId4"/>
-    <sheet name="Absentee" sheetId="9" r:id="rId5"/>
+    <sheet name="Absentee" sheetId="6" r:id="rId4"/>
+    <sheet name="AbsenteeCode" sheetId="9" r:id="rId5"/>
     <sheet name="Overtime" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -145,9 +146,6 @@
     <t>Personal note</t>
   </si>
   <si>
-    <t>Absentee form</t>
-  </si>
-  <si>
     <t>Overtime form</t>
   </si>
   <si>
@@ -214,13 +212,16 @@
     <t>PostalCode</t>
   </si>
   <si>
-    <t>Title</t>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>AbsenteeCode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,14 +285,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,11 +571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,7 +644,7 @@
         <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -711,7 +711,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -745,16 +745,16 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -762,14 +762,12 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -779,12 +777,14 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
@@ -794,13 +794,13 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -811,13 +811,13 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -828,7 +828,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
@@ -862,7 +862,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -879,13 +879,13 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -896,45 +896,43 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="1">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -949,12 +947,14 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
@@ -964,14 +964,12 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
@@ -981,37 +979,22 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1021,11 +1004,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1019,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1067,13 +1050,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -1105,16 +1088,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="1"/>
@@ -1122,8 +1105,8 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -1143,11 +1126,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1191,13 +1174,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -1213,19 +1196,36 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1233,11 +1233,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1375,7 +1375,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -1387,7 +1387,7 @@
         <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1434,11 +1434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1454,7 +1454,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1482,13 +1482,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
@@ -1505,7 +1505,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -1525,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1548,16 +1548,16 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>37</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1613,7 +1613,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -1630,7 +1630,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -1645,7 +1645,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -1660,7 +1660,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>

--- a/in-class.xlsx
+++ b/in-class.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="5" r:id="rId1"/>
     <sheet name="Department" sheetId="11" r:id="rId2"/>
     <sheet name="Job" sheetId="8" r:id="rId3"/>
-    <sheet name="Absenteeism" sheetId="6" r:id="rId4"/>
-    <sheet name="Absentee" sheetId="9" r:id="rId5"/>
+    <sheet name="Absentee" sheetId="6" r:id="rId4"/>
+    <sheet name="AbsenteeCode" sheetId="9" r:id="rId5"/>
     <sheet name="Overtime" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="65">
   <si>
     <t>Department Name</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Personal note</t>
   </si>
   <si>
-    <t>Absentee form</t>
-  </si>
-  <si>
     <t>Overtime form</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>Text[10]</t>
   </si>
   <si>
-    <t>Ratio repaid</t>
-  </si>
-  <si>
     <t>Work type(full-time or part-time)</t>
   </si>
   <si>
@@ -214,7 +208,22 @@
     <t>PostalCode</t>
   </si>
   <si>
-    <t>Title</t>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>AbsenteeCode</t>
+  </si>
+  <si>
+    <t>Job ID</t>
+  </si>
+  <si>
+    <t>JobID</t>
+  </si>
+  <si>
+    <t>Job Category</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
   </si>
 </sst>
 </file>
@@ -284,14 +293,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,26 +580,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
     <col min="14" max="14" width="12.88671875" customWidth="1"/>
     <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.6640625" customWidth="1"/>
@@ -608,28 +616,28 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>30</v>
@@ -644,7 +652,7 @@
         <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -711,7 +719,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -745,16 +753,16 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -762,14 +770,12 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -779,12 +785,14 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
@@ -794,13 +802,13 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -811,13 +819,13 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -828,7 +836,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
@@ -845,7 +853,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -862,7 +870,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -879,13 +887,13 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -896,45 +904,43 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="1">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -949,12 +955,14 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
@@ -964,14 +972,12 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
@@ -981,37 +987,22 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>54</v>
+      <c r="G22" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1025,21 +1016,28 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1067,13 +1065,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -1105,16 +1103,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="1"/>
@@ -1122,8 +1120,8 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -1144,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,9 +1158,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1191,13 +1195,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -1213,19 +1217,53 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1237,7 +1275,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1301,7 +1339,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1375,7 +1413,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -1387,7 +1425,7 @@
         <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1438,7 +1476,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1454,7 +1492,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1482,13 +1520,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
@@ -1505,7 +1543,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -1528,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1548,16 +1586,16 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>37</v>
@@ -1591,7 +1629,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1613,7 +1651,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -1630,7 +1668,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -1645,7 +1683,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -1660,7 +1698,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>

--- a/in-class.xlsx
+++ b/in-class.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1898506\OneDrive - John Abbott College\Rita\DB\Assignment\inclass week1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive - John Abbott College\420-P14-AB DATABASE I\New folder\DB-ICA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_11293C03E51053B05944D6B8237F2BDA81674596" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{65347DBF-AE7B-409B-B3EC-A87C6836E541}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="5" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="67">
   <si>
     <t>Department Name</t>
   </si>
@@ -224,12 +225,18 @@
   </si>
   <si>
     <t>Yes/No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Employee  ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,36 +586,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -655,7 +662,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -678,12 +685,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -699,7 +706,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -716,7 +723,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>54</v>
@@ -733,7 +740,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
@@ -750,7 +757,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -758,16 +765,14 @@
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1">
-        <v>8</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -782,24 +787,24 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>23</v>
@@ -808,7 +813,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -816,7 +821,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>49</v>
@@ -833,7 +838,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>57</v>
@@ -850,7 +855,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>58</v>
@@ -867,7 +872,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>50</v>
@@ -884,7 +889,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>29</v>
@@ -893,7 +898,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -901,7 +906,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>61</v>
@@ -922,7 +927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>30</v>
@@ -937,7 +942,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>26</v>
@@ -952,7 +957,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>48</v>
@@ -969,7 +974,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>28</v>
@@ -984,7 +989,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>51</v>
@@ -1012,21 +1017,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1040,7 +1045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1063,7 +1068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -1071,10 +1076,10 @@
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -1084,7 +1089,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -1101,7 +1106,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>55</v>
@@ -1118,7 +1123,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>56</v>
@@ -1127,7 +1132,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>31</v>
@@ -1141,22 +1146,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1193,7 +1198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1214,7 +1219,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -1231,7 +1236,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>59</v>
@@ -1248,7 +1253,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>24</v>
@@ -1271,27 +1276,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1314,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1358,7 +1363,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>33</v>
@@ -1375,7 +1380,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>34</v>
@@ -1390,7 +1395,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>35</v>
@@ -1407,7 +1412,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>36</v>
@@ -1428,7 +1433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>37</v>
@@ -1445,7 +1450,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -1472,22 +1477,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1495,7 +1500,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +1523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
@@ -1540,7 +1545,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>44</v>
@@ -1549,7 +1554,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -1563,25 +1568,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="3" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1635,10 +1641,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -1648,7 +1654,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>39</v>
@@ -1656,16 +1662,14 @@
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1">
-        <v>8</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>40</v>
@@ -1680,13 +1684,13 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -1695,7 +1699,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>42</v>
@@ -1710,7 +1714,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>37</v>
@@ -1727,7 +1731,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>3</v>

--- a/in-class.xlsx
+++ b/in-class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive - John Abbott College\420-P14-AB DATABASE I\New folder\DB-ICA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\DB-master\DB-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_11293C03E51053B05944D6B8237F2BDA81674596" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{65347DBF-AE7B-409B-B3EC-A87C6836E541}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC16B9-825B-400D-A20A-0191A1042DB5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="67">
   <si>
     <t>Department Name</t>
   </si>
@@ -107,15 +107,9 @@
     <t>Job description</t>
   </si>
   <si>
-    <t>Job category</t>
-  </si>
-  <si>
     <t>Seniority</t>
   </si>
   <si>
-    <t>Work type(full-time (35 hours a week) or part-time)</t>
-  </si>
-  <si>
     <t>Work hours</t>
   </si>
   <si>
@@ -231,13 +225,19 @@
   </si>
   <si>
     <t>Employee  ID</t>
+  </si>
+  <si>
+    <t>Data Dictionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Members: Aaron Graham, Hang Ruan; Wu Guo </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +253,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -296,17 +311,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,163 +619,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -757,97 +730,97 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
         <v>15</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1">
-        <v>60</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -855,10 +828,10 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -872,10 +845,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -889,16 +862,16 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -906,13 +879,13 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -920,64 +893,66 @@
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
@@ -989,28 +964,64 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="D24" s="1">
         <v>10</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>52</v>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1018,251 +1029,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD21"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -1270,135 +1267,140 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -1412,285 +1414,308 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="1">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D7" s="1">
         <v>255</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -1699,10 +1724,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1714,45 +1739,79 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D12" s="1">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
